--- a/LoopGame/LoopGame/Content/csv/TestStage04.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage04.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -612,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -659,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -709,19 +709,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -762,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
